--- a/data/trans_orig/P16A12-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Provincia-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2751,7 +2751,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4948,7 +4948,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7145,7 +7145,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A12-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>11954</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6366</v>
+        <v>7124</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19603</v>
+        <v>19753</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04378572034030068</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02331666110541375</v>
+        <v>0.02609483615975591</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07180428505656809</v>
+        <v>0.07235271260094141</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -765,19 +765,19 @@
         <v>10516</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5175</v>
+        <v>5571</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18146</v>
+        <v>20026</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04031714689515416</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01983885571645305</v>
+        <v>0.02135811279717545</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06956776325045352</v>
+        <v>0.07677461085428852</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -786,19 +786,19 @@
         <v>22470</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14404</v>
+        <v>15253</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32864</v>
+        <v>33194</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04209097572440262</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02698080922923305</v>
+        <v>0.02857213078475515</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06156016607302973</v>
+        <v>0.06217813360947095</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>261056</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>253407</v>
+        <v>253257</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>266644</v>
+        <v>265886</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9562142796596993</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9281957149434313</v>
+        <v>0.9276472873990588</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9766833388945861</v>
+        <v>0.9739051638402442</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>235</v>
@@ -836,19 +836,19 @@
         <v>250322</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>242692</v>
+        <v>240812</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>255663</v>
+        <v>255267</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9596828531048458</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9304322367495463</v>
+        <v>0.9232253891457116</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9801611442835468</v>
+        <v>0.9786418872028245</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>492</v>
@@ -857,19 +857,19 @@
         <v>511378</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>500984</v>
+        <v>500654</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>519444</v>
+        <v>518595</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9579090242755974</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9384398339269705</v>
+        <v>0.9378218663905291</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.973019190770767</v>
+        <v>0.971427869215245</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>26796</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18230</v>
+        <v>18503</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39708</v>
+        <v>39629</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05434534177290808</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0369720017315627</v>
+        <v>0.03752510702597371</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08053198992147903</v>
+        <v>0.08037056583906471</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -982,19 +982,19 @@
         <v>40028</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29172</v>
+        <v>29044</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53160</v>
+        <v>53676</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07942771980679485</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05788666193874012</v>
+        <v>0.05763360899290956</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1054872943492699</v>
+        <v>0.1065112148309228</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>64</v>
@@ -1003,19 +1003,19 @@
         <v>66824</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>51955</v>
+        <v>51910</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84128</v>
+        <v>83725</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06702331008864292</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05210980724594249</v>
+        <v>0.05206500685694084</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08437959453868214</v>
+        <v>0.08397499617431343</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>466279</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>453367</v>
+        <v>453446</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>474845</v>
+        <v>474572</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9456546582270919</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9194680100785212</v>
+        <v>0.9196294341609356</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9630279982684373</v>
+        <v>0.9624748929740266</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>460</v>
@@ -1053,19 +1053,19 @@
         <v>463921</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>450789</v>
+        <v>450273</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>474777</v>
+        <v>474905</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9205722801932051</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8945127056507299</v>
+        <v>0.8934887851690773</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9421133380612599</v>
+        <v>0.9423663910070904</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>900</v>
@@ -1074,19 +1074,19 @@
         <v>930200</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>912896</v>
+        <v>913299</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>945069</v>
+        <v>945114</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9329766899113571</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9156204054613176</v>
+        <v>0.9160250038256866</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9478901927540573</v>
+        <v>0.9479349931430592</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>15217</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8871</v>
+        <v>8940</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23199</v>
+        <v>23236</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04772550054460687</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02782302818685389</v>
+        <v>0.02803994543273973</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0727583010137144</v>
+        <v>0.07287492108123099</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -1199,19 +1199,19 @@
         <v>24829</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16752</v>
+        <v>16428</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35443</v>
+        <v>36691</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07402667476891739</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04994420314269118</v>
+        <v>0.04897789273444698</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1056697479482718</v>
+        <v>0.1093921688543044</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -1220,19 +1220,19 @@
         <v>40047</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29872</v>
+        <v>28794</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54549</v>
+        <v>52956</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06120906615120732</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04565840456730529</v>
+        <v>0.04401018065618179</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08337609823089508</v>
+        <v>0.08093998894479265</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>303629</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>295647</v>
+        <v>295610</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>309975</v>
+        <v>309906</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9522744994553931</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9272416989862855</v>
+        <v>0.9271250789187689</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9721769718131461</v>
+        <v>0.9719600545672602</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>310</v>
@@ -1270,19 +1270,19 @@
         <v>310583</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>299969</v>
+        <v>298721</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>318660</v>
+        <v>318984</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9259733252310826</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8943302520517286</v>
+        <v>0.8906078311456957</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9500557968573088</v>
+        <v>0.951022107265553</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>604</v>
@@ -1291,19 +1291,19 @@
         <v>614211</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>599709</v>
+        <v>601302</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>624386</v>
+        <v>625464</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9387909338487926</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9166239017691045</v>
+        <v>0.9190600110552074</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9543415954326947</v>
+        <v>0.9559898193438183</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>18332</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11721</v>
+        <v>11024</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28143</v>
+        <v>27133</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05111174657044448</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03267981783241097</v>
+        <v>0.03073604993489421</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07846566558066022</v>
+        <v>0.07564941314613867</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1416,19 +1416,19 @@
         <v>17492</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10975</v>
+        <v>10750</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26590</v>
+        <v>26920</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04709117639296181</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02954470614911627</v>
+        <v>0.0289402020322919</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0715835871658022</v>
+        <v>0.07247120513466671</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -1437,19 +1437,19 @@
         <v>35825</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26259</v>
+        <v>25896</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48105</v>
+        <v>47938</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04906626048693428</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03596483382488794</v>
+        <v>0.03546763658325035</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06588561191970026</v>
+        <v>0.06565692551130896</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>340339</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>330528</v>
+        <v>331538</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>346950</v>
+        <v>347647</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9488882534295555</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9215343344193397</v>
+        <v>0.9243505868538613</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9673201821675892</v>
+        <v>0.9692639500651058</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>365</v>
@@ -1487,19 +1487,19 @@
         <v>353964</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>344866</v>
+        <v>344536</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>360481</v>
+        <v>360706</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9529088236070382</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9284164128341978</v>
+        <v>0.9275287948653334</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9704552938508838</v>
+        <v>0.9710597979677081</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>707</v>
@@ -1508,19 +1508,19 @@
         <v>694302</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>682022</v>
+        <v>682189</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>703868</v>
+        <v>704231</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9509337395130657</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9341143880802998</v>
+        <v>0.934343074488691</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.964035166175112</v>
+        <v>0.9645323634167496</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>9684</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5213</v>
+        <v>5185</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16375</v>
+        <v>16683</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04763263759891835</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02564014096331822</v>
+        <v>0.0255035997701421</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08054431676823783</v>
+        <v>0.08205818323926352</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -1633,19 +1633,19 @@
         <v>18317</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11177</v>
+        <v>11325</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28248</v>
+        <v>28588</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08820371758173265</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05382066750235768</v>
+        <v>0.05453209327184475</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1360247110946474</v>
+        <v>0.137664070984304</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -1654,19 +1654,19 @@
         <v>28001</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18854</v>
+        <v>19919</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40013</v>
+        <v>39954</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06813338239881335</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04587578436586464</v>
+        <v>0.04846744452494823</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0973609850090186</v>
+        <v>0.09721850706424025</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>193624</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>186933</v>
+        <v>186625</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>198095</v>
+        <v>198123</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9523673624010817</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9194556832317622</v>
+        <v>0.9179418167607363</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9743598590366818</v>
+        <v>0.974496400229858</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>181</v>
@@ -1704,19 +1704,19 @@
         <v>189351</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>179420</v>
+        <v>179080</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>196491</v>
+        <v>196343</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9117962824182674</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8639752889053526</v>
+        <v>0.8623359290156956</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9461793324976423</v>
+        <v>0.9454679067281551</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>376</v>
@@ -1725,19 +1725,19 @@
         <v>382975</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>370963</v>
+        <v>371022</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>392122</v>
+        <v>391057</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9318666176011866</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9026390149909814</v>
+        <v>0.9027814929357598</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9541242156341355</v>
+        <v>0.9515325554750518</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>15295</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8846</v>
+        <v>7871</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25307</v>
+        <v>23608</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05647929555881747</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0326651255743969</v>
+        <v>0.02906352071778602</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09344921356804074</v>
+        <v>0.08717607594427655</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1850,19 +1850,19 @@
         <v>9535</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4335</v>
+        <v>4037</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17394</v>
+        <v>16826</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03428108095446934</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01558442484194923</v>
+        <v>0.01451542594917432</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06253713506048467</v>
+        <v>0.06049301382074652</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -1871,19 +1871,19 @@
         <v>24830</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16630</v>
+        <v>16650</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36271</v>
+        <v>36566</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04523192526808292</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03029342696988049</v>
+        <v>0.03032995508184199</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06607360515410145</v>
+        <v>0.0666093698452636</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>255516</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>245504</v>
+        <v>247203</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261965</v>
+        <v>262940</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9435207044411825</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9065507864319592</v>
+        <v>0.9128239240557231</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9673348744256031</v>
+        <v>0.9709364792822139</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>261</v>
@@ -1921,19 +1921,19 @@
         <v>268609</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>260750</v>
+        <v>261318</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>273809</v>
+        <v>274107</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9657189190455306</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9374628649395157</v>
+        <v>0.9395069861792534</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9844155751580508</v>
+        <v>0.9854845740508257</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>512</v>
@@ -1942,19 +1942,19 @@
         <v>524125</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>512684</v>
+        <v>512389</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>532325</v>
+        <v>532305</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.954768074731917</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9339263948458983</v>
+        <v>0.9333906301547364</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9697065730301194</v>
+        <v>0.969670044918158</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>41554</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31041</v>
+        <v>31128</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55930</v>
+        <v>53758</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06756483298625043</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05047058602936928</v>
+        <v>0.05061271777746552</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09093941372824897</v>
+        <v>0.08740821336219839</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>42</v>
@@ -2067,19 +2067,19 @@
         <v>41035</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28678</v>
+        <v>30521</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>53258</v>
+        <v>53946</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06429645783732073</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04493403297638456</v>
+        <v>0.04782200376153105</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08344743879166476</v>
+        <v>0.08452630499070214</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>86</v>
@@ -2088,19 +2088,19 @@
         <v>82589</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>66491</v>
+        <v>67393</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>101957</v>
+        <v>101622</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06590040383650754</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05305519871093952</v>
+        <v>0.05377441027272819</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08135449944016804</v>
+        <v>0.08108727832820281</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>573473</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>559097</v>
+        <v>561269</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>583986</v>
+        <v>583899</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9324351670137496</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9090605862717512</v>
+        <v>0.9125917866378016</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9495294139706308</v>
+        <v>0.9493872822225344</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>579</v>
@@ -2138,19 +2138,19 @@
         <v>597184</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>584961</v>
+        <v>584273</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>609541</v>
+        <v>607698</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9357035421626793</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9165525612083354</v>
+        <v>0.9154736950092981</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9550659670236156</v>
+        <v>0.952177996238469</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1133</v>
@@ -2159,19 +2159,19 @@
         <v>1170657</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1151289</v>
+        <v>1151624</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1186755</v>
+        <v>1185853</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9340995961634925</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9186455005598324</v>
+        <v>0.9189127216717971</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9469448012890608</v>
+        <v>0.9462255897272718</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>44195</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>31842</v>
+        <v>32411</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56823</v>
+        <v>57579</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05950005933219354</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04286907816944207</v>
+        <v>0.04363424854479314</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07650017441026859</v>
+        <v>0.07751851518423657</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -2284,19 +2284,19 @@
         <v>43462</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31008</v>
+        <v>31516</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>58511</v>
+        <v>58381</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05547136762611795</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03957622223399306</v>
+        <v>0.04022436077040723</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07467782626479479</v>
+        <v>0.07451155513452068</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>85</v>
@@ -2305,19 +2305,19 @@
         <v>87658</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>70628</v>
+        <v>70860</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>108447</v>
+        <v>108021</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05743195388196073</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04627422864145495</v>
+        <v>0.0464264960808944</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07105280436868057</v>
+        <v>0.07077394213119498</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>698582</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>685954</v>
+        <v>685198</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>710935</v>
+        <v>710366</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9404999406678064</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9234998255897314</v>
+        <v>0.9224814848157634</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9571309218305579</v>
+        <v>0.9563657514552069</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>706</v>
@@ -2355,19 +2355,19 @@
         <v>740049</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>725000</v>
+        <v>725130</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>752503</v>
+        <v>751995</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9445286323738821</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9253221737352051</v>
+        <v>0.9254884448654793</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9604237777660068</v>
+        <v>0.9597756392295927</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1395</v>
@@ -2376,19 +2376,19 @@
         <v>1438630</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1417841</v>
+        <v>1418267</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1455660</v>
+        <v>1455428</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9425680461180392</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9289471956313194</v>
+        <v>0.929226057868805</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9537257713585451</v>
+        <v>0.9535735039191056</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>183028</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>161058</v>
+        <v>157281</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>210790</v>
+        <v>210899</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05587758800138626</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04917020154681201</v>
+        <v>0.0480170571116687</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06435310264065641</v>
+        <v>0.06438621055171387</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>200</v>
@@ -2501,19 +2501,19 @@
         <v>205215</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>179435</v>
+        <v>180263</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>233611</v>
+        <v>233105</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06072901664633672</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05309977319538539</v>
+        <v>0.05334482818254589</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06913202554855588</v>
+        <v>0.06898246061008288</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>391</v>
@@ -2522,19 +2522,19 @@
         <v>388244</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>347818</v>
+        <v>351804</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>424820</v>
+        <v>426398</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05834109188413016</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05226630388757596</v>
+        <v>0.0528653090353768</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06383733091707244</v>
+        <v>0.06407449286721129</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3092497</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3064735</v>
+        <v>3064626</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3114467</v>
+        <v>3118244</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9441224119986137</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9356468973593435</v>
+        <v>0.935613789448286</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.950829798453188</v>
+        <v>0.9519829428883313</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3097</v>
@@ -2572,19 +2572,19 @@
         <v>3173982</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3145586</v>
+        <v>3146092</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3199762</v>
+        <v>3198934</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9392709833536633</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9308679744514444</v>
+        <v>0.9310175393899172</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9469002268046151</v>
+        <v>0.9466551718174541</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6119</v>
@@ -2593,19 +2593,19 @@
         <v>6266478</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6229902</v>
+        <v>6228324</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6306904</v>
+        <v>6302918</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9416589081158698</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9361626690829274</v>
+        <v>0.9359255071327885</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9477336961124239</v>
+        <v>0.9471346909646229</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>19210</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11317</v>
+        <v>12080</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29794</v>
+        <v>31099</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.065742673046868</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03872942663214073</v>
+        <v>0.04134116554588128</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1019674737534347</v>
+        <v>0.1064337764987894</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -2962,19 +2962,19 @@
         <v>18450</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11175</v>
+        <v>11204</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28143</v>
+        <v>27833</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.065591595072749</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03972848759614882</v>
+        <v>0.03983167232488791</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1000550144495824</v>
+        <v>0.09895031870343819</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -2983,19 +2983,19 @@
         <v>37659</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26416</v>
+        <v>26758</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51734</v>
+        <v>53605</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06566857177446689</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04606272635681427</v>
+        <v>0.04665915452916503</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09021224606191827</v>
+        <v>0.09347381854685269</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>272985</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>262401</v>
+        <v>261096</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>280878</v>
+        <v>280115</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.934257326953132</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8980325262465673</v>
+        <v>0.8935662235012104</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9612705733678595</v>
+        <v>0.9586588344541186</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>233</v>
@@ -3033,19 +3033,19 @@
         <v>262830</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>253137</v>
+        <v>253447</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>270105</v>
+        <v>270076</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.934408404927251</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8999449855504175</v>
+        <v>0.9010496812965618</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9602715124038511</v>
+        <v>0.9601683276751121</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>495</v>
@@ -3054,19 +3054,19 @@
         <v>535815</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>521740</v>
+        <v>519869</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>547058</v>
+        <v>546716</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9343314282255331</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9097877539380819</v>
+        <v>0.9065261814531473</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9539372736431857</v>
+        <v>0.953340845470835</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>34903</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23828</v>
+        <v>24934</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48649</v>
+        <v>49444</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06904286103637276</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04713525792455453</v>
+        <v>0.04932243148109285</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09623466583583032</v>
+        <v>0.0978073110730359</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -3179,19 +3179,19 @@
         <v>57594</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43790</v>
+        <v>44368</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>72676</v>
+        <v>73467</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1101793016603733</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08377119607087936</v>
+        <v>0.08487720158445844</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1390306490994478</v>
+        <v>0.1405444068350265</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>85</v>
@@ -3200,19 +3200,19 @@
         <v>92497</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75373</v>
+        <v>74625</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>113937</v>
+        <v>117143</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08995520296990178</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07330120116141875</v>
+        <v>0.07257463119291298</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1108057643467839</v>
+        <v>0.1139234433534857</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>470624</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>456878</v>
+        <v>456083</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>481699</v>
+        <v>480593</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9309571389636272</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9037653341641698</v>
+        <v>0.902192688926964</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9528647420754456</v>
+        <v>0.9506775685189072</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>425</v>
@@ -3250,19 +3250,19 @@
         <v>465137</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>450055</v>
+        <v>449264</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>478941</v>
+        <v>478363</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8898206983396267</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.860969350900552</v>
+        <v>0.8594555931649736</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.91622880392912</v>
+        <v>0.9151227984155416</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>866</v>
@@ -3271,19 +3271,19 @@
         <v>935761</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>914321</v>
+        <v>911115</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>952885</v>
+        <v>953633</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9100447970300982</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8891942356532162</v>
+        <v>0.886076556646514</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9266987988385813</v>
+        <v>0.927425368807087</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>33437</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23503</v>
+        <v>22879</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45711</v>
+        <v>46082</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1034842550396088</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07273845542642282</v>
+        <v>0.07080669543328741</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1414698043525257</v>
+        <v>0.1426189334499216</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -3396,19 +3396,19 @@
         <v>35128</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24513</v>
+        <v>24726</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47579</v>
+        <v>48365</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1030075436154849</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07188028127862368</v>
+        <v>0.07250501641430443</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1395208217845901</v>
+        <v>0.1418231193937496</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -3417,19 +3417,19 @@
         <v>68565</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53266</v>
+        <v>53300</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87021</v>
+        <v>86269</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1032394736935115</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08020355056478733</v>
+        <v>0.08025513157099037</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1310294813771264</v>
+        <v>0.1298966308157168</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>289679</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>277405</v>
+        <v>277034</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>299613</v>
+        <v>300237</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8965157449603912</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8585301956474748</v>
+        <v>0.8573810665500784</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9272615445735776</v>
+        <v>0.9291933045667126</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>285</v>
@@ -3467,19 +3467,19 @@
         <v>305892</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>293441</v>
+        <v>292655</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>316507</v>
+        <v>316294</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8969924563845151</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8604791782154088</v>
+        <v>0.85817688060625</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9281197187213762</v>
+        <v>0.9274949835856954</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>572</v>
@@ -3488,19 +3488,19 @@
         <v>595571</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>577115</v>
+        <v>577867</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>610870</v>
+        <v>610836</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8967605263064885</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.868970518622873</v>
+        <v>0.8701033691842819</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9197964494352127</v>
+        <v>0.9197448684290095</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>22420</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13537</v>
+        <v>14964</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32575</v>
+        <v>32343</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05994889199948843</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03619627930568005</v>
+        <v>0.04001224211016457</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08710196737191041</v>
+        <v>0.08648240703417036</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -3613,19 +3613,19 @@
         <v>31623</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21826</v>
+        <v>22634</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44331</v>
+        <v>43933</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08150678586329858</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05625716641814398</v>
+        <v>0.05833863940991336</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1142636975317366</v>
+        <v>0.1132371451450346</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>52</v>
@@ -3634,19 +3634,19 @@
         <v>54042</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40818</v>
+        <v>41371</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>68801</v>
+        <v>69120</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07092577705481058</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05356962376134806</v>
+        <v>0.05429635893083591</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09029463267248561</v>
+        <v>0.09071376645850063</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>351562</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>341407</v>
+        <v>341639</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>360445</v>
+        <v>359018</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9400511080005116</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9128980326280896</v>
+        <v>0.9135175929658296</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.96380372069432</v>
+        <v>0.9599877578898354</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>339</v>
@@ -3684,19 +3684,19 @@
         <v>356351</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>343643</v>
+        <v>344041</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>366148</v>
+        <v>365340</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9184932141367014</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8857363024682631</v>
+        <v>0.886762854854965</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9437428335818561</v>
+        <v>0.9416613605900866</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>662</v>
@@ -3705,19 +3705,19 @@
         <v>707914</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>693155</v>
+        <v>692836</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>721138</v>
+        <v>720585</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9290742229451894</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9097053673275144</v>
+        <v>0.9092862335414994</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9464303762386522</v>
+        <v>0.9457036410691638</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>18939</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10878</v>
+        <v>11549</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28478</v>
+        <v>28916</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08907617577992687</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05116252494745126</v>
+        <v>0.05432009998378404</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1339397220229437</v>
+        <v>0.1359995988331983</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -3830,19 +3830,19 @@
         <v>25856</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17307</v>
+        <v>17414</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36917</v>
+        <v>36724</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1177442618658408</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07881599728158881</v>
+        <v>0.07930343752758917</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1681151122129732</v>
+        <v>0.1672391353743602</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -3851,19 +3851,19 @@
         <v>44795</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33186</v>
+        <v>33539</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58176</v>
+        <v>58277</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1036414743237291</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07678171762567972</v>
+        <v>0.07759891394269641</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1346014917800161</v>
+        <v>0.134835040355056</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>193679</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>184140</v>
+        <v>183702</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>201740</v>
+        <v>201069</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9109238242200731</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.866060277977056</v>
+        <v>0.8640004011668014</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9488374750525487</v>
+        <v>0.9456799000162155</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>187</v>
@@ -3901,19 +3901,19 @@
         <v>193735</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>182674</v>
+        <v>182867</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>202284</v>
+        <v>202177</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8822557381341591</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8318848877870268</v>
+        <v>0.8327608646256394</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9211840027184112</v>
+        <v>0.9206965624724108</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>366</v>
@@ -3922,19 +3922,19 @@
         <v>387414</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>374033</v>
+        <v>373932</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>399023</v>
+        <v>398670</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8963585256762709</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8653985082199837</v>
+        <v>0.8651649596449436</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.92321828237432</v>
+        <v>0.9224010860573034</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>18480</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11608</v>
+        <v>11676</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27821</v>
+        <v>28416</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06745042665300695</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04236701226631515</v>
+        <v>0.04261677641520421</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1015448964417092</v>
+        <v>0.1037137620970035</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -4047,19 +4047,19 @@
         <v>29538</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20232</v>
+        <v>20692</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40701</v>
+        <v>41225</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1058180715930403</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07247882173946982</v>
+        <v>0.07412822479352163</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1458084209577445</v>
+        <v>0.1476871476237578</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>46</v>
@@ -4068,19 +4068,19 @@
         <v>48018</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35105</v>
+        <v>36888</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>61586</v>
+        <v>63090</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08681319093979203</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06346633636259061</v>
+        <v>0.06669037135279228</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1113419654939736</v>
+        <v>0.1140621492264341</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>255501</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>246160</v>
+        <v>245565</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262373</v>
+        <v>262305</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9325495733469931</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8984551035582909</v>
+        <v>0.8962862379029966</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.957632987733685</v>
+        <v>0.9573832235847959</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>240</v>
@@ -4118,19 +4118,19 @@
         <v>249602</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>238439</v>
+        <v>237915</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>258908</v>
+        <v>258448</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8941819284069596</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8541915790422554</v>
+        <v>0.8523128523762423</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9275211782605302</v>
+        <v>0.9258717752064785</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>483</v>
@@ -4139,19 +4139,19 @@
         <v>505103</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>491535</v>
+        <v>490031</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>518016</v>
+        <v>516233</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.913186809060208</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8886580345060263</v>
+        <v>0.8859378507735659</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9365336636374094</v>
+        <v>0.9333096286472077</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>54327</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>40934</v>
+        <v>39333</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>70901</v>
+        <v>69565</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08196755535183645</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06175996959454717</v>
+        <v>0.05934501514082254</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1069738499652321</v>
+        <v>0.1049586208842143</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>53</v>
@@ -4264,19 +4264,19 @@
         <v>56478</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>42919</v>
+        <v>43557</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>72136</v>
+        <v>74853</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08139729935039264</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0618567503213945</v>
+        <v>0.06277484244736241</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1039641630729066</v>
+        <v>0.1078801064868848</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>104</v>
@@ -4285,19 +4285,19 @@
         <v>110805</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>91441</v>
+        <v>92292</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>134057</v>
+        <v>135579</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08167589837127508</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06740218503094025</v>
+        <v>0.06802969125150708</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09881528425031134</v>
+        <v>0.09993719082349768</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>608461</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>591887</v>
+        <v>593223</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>621854</v>
+        <v>623455</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9180324446481636</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8930261500347679</v>
+        <v>0.8950413791157853</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9382400304054529</v>
+        <v>0.9406549848591771</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>583</v>
@@ -4335,19 +4335,19 @@
         <v>637375</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>621717</v>
+        <v>619000</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>650934</v>
+        <v>650296</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9186027006496074</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8960358369270933</v>
+        <v>0.8921198935131153</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9381432496786055</v>
+        <v>0.9372251575526376</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1150</v>
@@ -4356,19 +4356,19 @@
         <v>1245836</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1222584</v>
+        <v>1221062</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1265200</v>
+        <v>1264349</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9183241016287249</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9011847157496883</v>
+        <v>0.9000628091765025</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9325978149690597</v>
+        <v>0.931970308748493</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>48354</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>35394</v>
+        <v>36308</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>65989</v>
+        <v>64685</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0622340688357454</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04555322562877188</v>
+        <v>0.04673015275682203</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08493081460216709</v>
+        <v>0.08325203944340011</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>42</v>
@@ -4481,19 +4481,19 @@
         <v>45320</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32512</v>
+        <v>33564</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>59678</v>
+        <v>60699</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05516653638006059</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03957589397704315</v>
+        <v>0.04085558813342469</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07264342070602003</v>
+        <v>0.07388588869489464</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>85</v>
@@ -4502,19 +4502,19 @@
         <v>93675</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>74973</v>
+        <v>76193</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>113309</v>
+        <v>115194</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05860181962411166</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04690247815768705</v>
+        <v>0.0476652600946778</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07088464534180212</v>
+        <v>0.07206401116081249</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>728618</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>710983</v>
+        <v>712287</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>741578</v>
+        <v>740664</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9377659311642546</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9150691853978329</v>
+        <v>0.9167479605565996</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.954446774371228</v>
+        <v>0.9532698472431779</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>713</v>
@@ -4552,19 +4552,19 @@
         <v>776200</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>761842</v>
+        <v>760821</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>789008</v>
+        <v>787956</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9448334636199394</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9273565792939799</v>
+        <v>0.9261141113051053</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9604241060229568</v>
+        <v>0.9591444118665753</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1385</v>
@@ -4573,19 +4573,19 @@
         <v>1504817</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1485183</v>
+        <v>1483298</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1523519</v>
+        <v>1522299</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9413981803758883</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9291153546581974</v>
+        <v>0.9279359888391875</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9530975218423129</v>
+        <v>0.9523347399053219</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>250071</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>216787</v>
+        <v>218513</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>284848</v>
+        <v>282063</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07309483587832821</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06336607398399374</v>
+        <v>0.0638707004419605</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08326024461877378</v>
+        <v>0.08244612200288264</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>283</v>
@@ -4698,19 +4698,19 @@
         <v>299986</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>269260</v>
+        <v>269626</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>332597</v>
+        <v>336528</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08457188379677998</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07590954776220786</v>
+        <v>0.07601294083900072</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09376575404170655</v>
+        <v>0.09487377675308131</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>512</v>
@@ -4719,19 +4719,19 @@
         <v>550056</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>503836</v>
+        <v>504142</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>599017</v>
+        <v>598602</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07893706617696331</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07230410076287572</v>
+        <v>0.0723479820321806</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08596331956708025</v>
+        <v>0.08590365769011724</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3171108</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3136331</v>
+        <v>3139116</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3204392</v>
+        <v>3202666</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9269051641216718</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9167397553812263</v>
+        <v>0.9175538779971174</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9366339260160064</v>
+        <v>0.9361292995580396</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3005</v>
@@ -4769,19 +4769,19 @@
         <v>3247124</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3214513</v>
+        <v>3210582</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3277850</v>
+        <v>3277484</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9154281162032201</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9062342459582935</v>
+        <v>0.9051262232469187</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9240904522377922</v>
+        <v>0.9239870591609993</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5979</v>
@@ -4790,19 +4790,19 @@
         <v>6418233</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6369272</v>
+        <v>6369687</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6464453</v>
+        <v>6464147</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9210629338230367</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9140366804329197</v>
+        <v>0.9140963423098828</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9276958992371244</v>
+        <v>0.9276520179678194</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>19095</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11686</v>
+        <v>12004</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29035</v>
+        <v>29074</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0650028087378975</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03977931561604352</v>
+        <v>0.04086148605365075</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09884015603385089</v>
+        <v>0.09897153680379074</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -5159,19 +5159,19 @@
         <v>10529</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5416</v>
+        <v>5114</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18546</v>
+        <v>18241</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03647049640506961</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01875983820627687</v>
+        <v>0.01771375001796154</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06423986522708205</v>
+        <v>0.06318264245590462</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -5180,19 +5180,19 @@
         <v>29624</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19903</v>
+        <v>20383</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42269</v>
+        <v>43768</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05086053702048046</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03417023732179039</v>
+        <v>0.03499464696105582</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07256886117387684</v>
+        <v>0.07514344174691834</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>274666</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>264726</v>
+        <v>264687</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>282075</v>
+        <v>281757</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9349971912621025</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9011598439661491</v>
+        <v>0.9010284631962093</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9602206843839565</v>
+        <v>0.9591385139463493</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>267</v>
@@ -5230,19 +5230,19 @@
         <v>278174</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>270157</v>
+        <v>270462</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>283287</v>
+        <v>283589</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9635295035949304</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.935760134772918</v>
+        <v>0.9368173575440951</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9812401617937232</v>
+        <v>0.9822862499820384</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>515</v>
@@ -5251,19 +5251,19 @@
         <v>552840</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>540195</v>
+        <v>538696</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>562561</v>
+        <v>562081</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9491394629795196</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9274311388261228</v>
+        <v>0.9248565582530813</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9658297626782094</v>
+        <v>0.9650053530389441</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>34226</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24045</v>
+        <v>23512</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46676</v>
+        <v>46164</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06810125144689949</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04784321613845022</v>
+        <v>0.04678316107124995</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09287432502286824</v>
+        <v>0.09185456114564551</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -5376,19 +5376,19 @@
         <v>54198</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41982</v>
+        <v>40422</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>68434</v>
+        <v>69428</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1036130946771084</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0802580463328772</v>
+        <v>0.07727572884367667</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1308286984189449</v>
+        <v>0.1327275677305811</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -5397,19 +5397,19 @@
         <v>88424</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70952</v>
+        <v>72134</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>107559</v>
+        <v>107460</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08621221274728395</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06917675740012709</v>
+        <v>0.07032961934914383</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1048677537088628</v>
+        <v>0.1047712190910476</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>468349</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>455899</v>
+        <v>456411</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>478530</v>
+        <v>479063</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9318987485531005</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9071256749771317</v>
+        <v>0.9081454388543545</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9521567838615497</v>
+        <v>0.9532168389287502</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>437</v>
@@ -5447,19 +5447,19 @@
         <v>468886</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>454650</v>
+        <v>453656</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>481102</v>
+        <v>482662</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8963869053228916</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.869171301581055</v>
+        <v>0.867272432269419</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9197419536671227</v>
+        <v>0.9227242711563234</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>878</v>
@@ -5468,19 +5468,19 @@
         <v>937235</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>918100</v>
+        <v>918199</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>954707</v>
+        <v>953525</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.913787787252716</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8951322462911371</v>
+        <v>0.8952287809089524</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9308232425998728</v>
+        <v>0.9296703806508562</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>13591</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7542</v>
+        <v>8376</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21306</v>
+        <v>22428</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04266320395019604</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02367533864364057</v>
+        <v>0.02629224070179282</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06687995759279008</v>
+        <v>0.07040317965292701</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -5593,19 +5593,19 @@
         <v>21093</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12917</v>
+        <v>13622</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32266</v>
+        <v>32045</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06271876264334696</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03840883285183735</v>
+        <v>0.04050435890650739</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09594120839513552</v>
+        <v>0.09528407373093152</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -5614,19 +5614,19 @@
         <v>34684</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24132</v>
+        <v>24991</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>46216</v>
+        <v>47282</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05296268893922191</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03685018397746777</v>
+        <v>0.03816151422457114</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07057295177560707</v>
+        <v>0.07219943421319407</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>304974</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>297259</v>
+        <v>296137</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>311023</v>
+        <v>310189</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9573367960498039</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9331200424072091</v>
+        <v>0.929596820347074</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9763246613563592</v>
+        <v>0.9737077592982074</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>313</v>
@@ -5664,19 +5664,19 @@
         <v>315216</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>304043</v>
+        <v>304264</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>323392</v>
+        <v>322687</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.937281237356653</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9040587916048646</v>
+        <v>0.9047159262690684</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9615911671481627</v>
+        <v>0.9594956410934926</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>632</v>
@@ -5685,19 +5685,19 @@
         <v>620190</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>608658</v>
+        <v>607592</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>630742</v>
+        <v>629883</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.947037311060778</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9294270482243925</v>
+        <v>0.9278005657868057</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9631498160225321</v>
+        <v>0.9618384857754289</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>45807</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33179</v>
+        <v>34580</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59257</v>
+        <v>58386</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.123815634844911</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08968063792168393</v>
+        <v>0.09346764569597241</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.160168864168327</v>
+        <v>0.1578140985929748</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -5810,19 +5810,19 @@
         <v>25987</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17449</v>
+        <v>16908</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36762</v>
+        <v>37402</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0670998360383962</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04505500217428045</v>
+        <v>0.04365922349159782</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09492155621641025</v>
+        <v>0.09657424568928688</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>71</v>
@@ -5831,19 +5831,19 @@
         <v>71794</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56242</v>
+        <v>56494</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>88978</v>
+        <v>88906</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09480916167902489</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07427183688831099</v>
+        <v>0.07460405990964386</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1175024079551175</v>
+        <v>0.1174073637319536</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>324157</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>310707</v>
+        <v>311578</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>336785</v>
+        <v>335384</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.876184365155089</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.839831135831673</v>
+        <v>0.8421859014070251</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9103193620783161</v>
+        <v>0.9065323543040277</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>334</v>
@@ -5881,19 +5881,19 @@
         <v>361296</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>350521</v>
+        <v>349881</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>369834</v>
+        <v>370375</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9329001639616038</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9050784437835896</v>
+        <v>0.9034257543107131</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9549449978257193</v>
+        <v>0.9563407765084023</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>641</v>
@@ -5902,19 +5902,19 @@
         <v>685453</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>668269</v>
+        <v>668341</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>701005</v>
+        <v>700753</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9051908383209751</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8824975920448827</v>
+        <v>0.8825926362680463</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9257281631116892</v>
+        <v>0.9253959400903562</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>13041</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7873</v>
+        <v>7298</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21518</v>
+        <v>20979</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06173994105801985</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0372724956115619</v>
+        <v>0.03455066486941842</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.101874805055864</v>
+        <v>0.0993240422456461</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -6027,19 +6027,19 @@
         <v>20570</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13227</v>
+        <v>12597</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30470</v>
+        <v>30175</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09410488321171813</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06051257797613074</v>
+        <v>0.0576297705791842</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.139393249807592</v>
+        <v>0.1380459245162986</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>34</v>
@@ -6048,19 +6048,19 @@
         <v>33611</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23566</v>
+        <v>24371</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46884</v>
+        <v>46718</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07819974552701685</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05482933889897867</v>
+        <v>0.05670267780527825</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1090812784765102</v>
+        <v>0.1086955137820608</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>198180</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>189703</v>
+        <v>190242</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>203348</v>
+        <v>203923</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9382600589419802</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8981251949441359</v>
+        <v>0.9006759577543535</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9627275043884377</v>
+        <v>0.9654493351305815</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>203</v>
@@ -6098,19 +6098,19 @@
         <v>198017</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>188117</v>
+        <v>188412</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>205360</v>
+        <v>205990</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9058951167882818</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.860606750192408</v>
+        <v>0.8619540754837014</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9394874220238694</v>
+        <v>0.9423702294208158</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>401</v>
@@ -6119,19 +6119,19 @@
         <v>396197</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>382924</v>
+        <v>383090</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>406242</v>
+        <v>405437</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9218002544729832</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8909187215234903</v>
+        <v>0.8913044862179391</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9451706611010213</v>
+        <v>0.9432973221947215</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>17229</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10656</v>
+        <v>10481</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25640</v>
+        <v>26749</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06547962938639525</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04049913740788059</v>
+        <v>0.03983141293708863</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09744477199079254</v>
+        <v>0.1016585568226301</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -6244,19 +6244,19 @@
         <v>18366</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11028</v>
+        <v>11688</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28564</v>
+        <v>29419</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06724687617682884</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04037689477071808</v>
+        <v>0.04279493122340468</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1045852807404166</v>
+        <v>0.1077150274072838</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>35</v>
@@ -6265,19 +6265,19 @@
         <v>35595</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>24683</v>
+        <v>24927</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>47924</v>
+        <v>47809</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06637971779543021</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04603047760552156</v>
+        <v>0.04648539605507183</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08937135451144232</v>
+        <v>0.08915582916765331</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>245894</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>237483</v>
+        <v>236374</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>252467</v>
+        <v>252642</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9345203706136047</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9025552280092078</v>
+        <v>0.89834144317737</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9595008625921194</v>
+        <v>0.9601685870629114</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>247</v>
@@ -6315,19 +6315,19 @@
         <v>254749</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>244551</v>
+        <v>243696</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>262087</v>
+        <v>261427</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9327531238231712</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8954147192595833</v>
+        <v>0.8922849725927157</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.959623105229282</v>
+        <v>0.9572050687765953</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>487</v>
@@ -6336,19 +6336,19 @@
         <v>500643</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>488314</v>
+        <v>488429</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>511555</v>
+        <v>511311</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9336202822045698</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9106286454885575</v>
+        <v>0.9108441708323467</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9539695223944784</v>
+        <v>0.9535146039449283</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>71120</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>55748</v>
+        <v>57127</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>88740</v>
+        <v>89617</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1083218672752697</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0849099059893354</v>
+        <v>0.08700937608510784</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1351593888552911</v>
+        <v>0.1364944640727269</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>45</v>
@@ -6461,19 +6461,19 @@
         <v>54454</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39271</v>
+        <v>38978</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>71934</v>
+        <v>71062</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07877044296733375</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05680833327398051</v>
+        <v>0.05638368634392323</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1040565930711984</v>
+        <v>0.1027950318827212</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>109</v>
@@ -6482,19 +6482,19 @@
         <v>125573</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>106355</v>
+        <v>104433</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>149180</v>
+        <v>150955</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09316536465726417</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07890687948390893</v>
+        <v>0.07748076098853697</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1106797373675034</v>
+        <v>0.1119967443562735</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>585438</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>567818</v>
+        <v>566941</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>600810</v>
+        <v>599431</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8916781327247303</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.864840611144709</v>
+        <v>0.8635055359272731</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9150900940106647</v>
+        <v>0.9129906239148922</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>601</v>
@@ -6532,19 +6532,19 @@
         <v>636840</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>619360</v>
+        <v>620232</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>652023</v>
+        <v>652316</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9212295570326663</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8959434069288017</v>
+        <v>0.8972049681172788</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9431916667260196</v>
+        <v>0.9436163136560765</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1117</v>
@@ -6553,19 +6553,19 @@
         <v>1222279</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1198672</v>
+        <v>1196897</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1241497</v>
+        <v>1243419</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9068346353427358</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8893202626324966</v>
+        <v>0.8880032556437265</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.921093120516091</v>
+        <v>0.922519239011463</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>69698</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>54383</v>
+        <v>56180</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>87217</v>
+        <v>86334</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08951920434926919</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0698488792994381</v>
+        <v>0.07215631950509123</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1120205992492721</v>
+        <v>0.11088574154871</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>60</v>
@@ -6678,19 +6678,19 @@
         <v>72746</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>56071</v>
+        <v>55861</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>92220</v>
+        <v>93157</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08805215205866959</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06786868535005069</v>
+        <v>0.06761502856717459</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1116244087466947</v>
+        <v>0.1127586166215174</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>133</v>
@@ -6699,19 +6699,19 @@
         <v>142444</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>118614</v>
+        <v>119142</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>168024</v>
+        <v>166906</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08876392770579922</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07391457275795883</v>
+        <v>0.07424347028039867</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1047042050314745</v>
+        <v>0.1040076931613344</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>708885</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>691366</v>
+        <v>692249</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>724200</v>
+        <v>722403</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9104807956507308</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8879794007507279</v>
+        <v>0.88911425845129</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9301511207005621</v>
+        <v>0.9278436804949088</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>695</v>
@@ -6749,19 +6749,19 @@
         <v>753421</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>733947</v>
+        <v>733010</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>770096</v>
+        <v>770306</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9119478479413304</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8883755912533051</v>
+        <v>0.8872413833784837</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9321313146499492</v>
+        <v>0.9323849714328257</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1372</v>
@@ -6770,19 +6770,19 @@
         <v>1462306</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1436726</v>
+        <v>1437844</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1486136</v>
+        <v>1485608</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9112360722942008</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8952957949685254</v>
+        <v>0.8959923068386655</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.926085427242041</v>
+        <v>0.9257565297196013</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>283807</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>254398</v>
+        <v>248452</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>315851</v>
+        <v>315337</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08361167524436473</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0749474501917021</v>
+        <v>0.07319576833460832</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0930518462122866</v>
+        <v>0.09290062123889188</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>241</v>
@@ -6895,19 +6895,19 @@
         <v>277943</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>242575</v>
+        <v>244702</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>312581</v>
+        <v>311510</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0784142367788917</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06843611052221663</v>
+        <v>0.06903631487112906</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08818656848614737</v>
+        <v>0.0878843147963445</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>526</v>
@@ -6916,19 +6916,19 @@
         <v>561750</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>515709</v>
+        <v>513482</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>611236</v>
+        <v>611981</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08095670698434509</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07432147579491016</v>
+        <v>0.07400058334447875</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0880884540616873</v>
+        <v>0.08819571754417484</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3110543</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3078499</v>
+        <v>3079013</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3139952</v>
+        <v>3145898</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9163883247556353</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9069481537877134</v>
+        <v>0.907099378761108</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9250525498082979</v>
+        <v>0.9268042316653917</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3097</v>
@@ -6966,19 +6966,19 @@
         <v>3266599</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3231961</v>
+        <v>3233032</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3301967</v>
+        <v>3299840</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9215857632211083</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9118134315138527</v>
+        <v>0.9121156852036556</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9315638894777833</v>
+        <v>0.9309636851288711</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6043</v>
@@ -6987,19 +6987,19 @@
         <v>6377142</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6327656</v>
+        <v>6326911</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6423183</v>
+        <v>6425410</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9190432930156549</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9119115459383136</v>
+        <v>0.9118042824558253</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9256785242050901</v>
+        <v>0.9259994166555212</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>31244</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23019</v>
+        <v>23274</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41962</v>
+        <v>41236</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0979909684572897</v>
+        <v>0.09799096845728972</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07219577284620621</v>
+        <v>0.0729958511205929</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1316077093076951</v>
+        <v>0.129328495530043</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -7356,19 +7356,19 @@
         <v>23730</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17223</v>
+        <v>17727</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30775</v>
+        <v>30591</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.07507927492424402</v>
+        <v>0.075079274924244</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05449144941259043</v>
+        <v>0.05608707199310572</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09736971334812498</v>
+        <v>0.09678877655102523</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>88</v>
@@ -7377,19 +7377,19 @@
         <v>54974</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45030</v>
+        <v>44237</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>67439</v>
+        <v>67190</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08658536596536719</v>
+        <v>0.0865853659653672</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07092350686971485</v>
+        <v>0.06967475176467908</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1062193904886886</v>
+        <v>0.1058260187796628</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>287601</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>276883</v>
+        <v>277609</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>295826</v>
+        <v>295571</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9020090315427103</v>
+        <v>0.9020090315427105</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8683922906923048</v>
+        <v>0.8706715044699569</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9278042271537934</v>
+        <v>0.9270041488794072</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>490</v>
@@ -7427,19 +7427,19 @@
         <v>292331</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>285286</v>
+        <v>285470</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>298838</v>
+        <v>298334</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.924920725075756</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9026302866518751</v>
+        <v>0.9032112234489748</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9455085505874095</v>
+        <v>0.9439129280068944</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>781</v>
@@ -7448,19 +7448,19 @@
         <v>579932</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>567467</v>
+        <v>567716</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>589876</v>
+        <v>590669</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9134146340346329</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8937806095113113</v>
+        <v>0.8941739812203374</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9290764931302852</v>
+        <v>0.9303252482353211</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>34725</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23441</v>
+        <v>24094</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47722</v>
+        <v>46725</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06556082031669858</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04425628206510603</v>
+        <v>0.04548881106309374</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09009864501329362</v>
+        <v>0.08821779254272491</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>65</v>
@@ -7573,19 +7573,19 @@
         <v>41174</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30496</v>
+        <v>32370</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50961</v>
+        <v>52484</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07551819197669218</v>
+        <v>0.07551819197669217</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05593432887228792</v>
+        <v>0.05937144595722352</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09346903799520599</v>
+        <v>0.09626419098813033</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>97</v>
@@ -7594,19 +7594,19 @@
         <v>75898</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>61213</v>
+        <v>60819</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>91011</v>
+        <v>92435</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.07061154968057003</v>
+        <v>0.07061154968057001</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05694892351387104</v>
+        <v>0.05658289988741791</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08467098569680771</v>
+        <v>0.08599580562090751</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>494935</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>481938</v>
+        <v>482935</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>506219</v>
+        <v>505566</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9344391796833015</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9099013549867065</v>
+        <v>0.9117822074572749</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9557437179348943</v>
+        <v>0.954511188936906</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>650</v>
@@ -7644,19 +7644,19 @@
         <v>504039</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>494252</v>
+        <v>492729</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>514717</v>
+        <v>512843</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9244818080233077</v>
+        <v>0.9244818080233078</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9065309620047938</v>
+        <v>0.9037358090118696</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9440656711277121</v>
+        <v>0.9406285540427766</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>999</v>
@@ -7665,19 +7665,19 @@
         <v>998975</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>983862</v>
+        <v>982438</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1013660</v>
+        <v>1014054</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.92938845031943</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9153290143031925</v>
+        <v>0.9140041943790922</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9430510764861293</v>
+        <v>0.9434171001125822</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>35403</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27064</v>
+        <v>27933</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45075</v>
+        <v>46818</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1120362617853924</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08564738467760163</v>
+        <v>0.08839681346526303</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1426448159307919</v>
+        <v>0.1481628655766462</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -7790,19 +7790,19 @@
         <v>36330</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28759</v>
+        <v>28783</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46158</v>
+        <v>45957</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1019411270528489</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08069721758131627</v>
+        <v>0.08076593097619317</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1295190466735004</v>
+        <v>0.1289541598699702</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>123</v>
@@ -7811,19 +7811,19 @@
         <v>71733</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58962</v>
+        <v>59553</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>85721</v>
+        <v>83617</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1066854993622869</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08769181361995684</v>
+        <v>0.08857185320312604</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1274901107392318</v>
+        <v>0.1243603276786547</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>280590</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>270918</v>
+        <v>269175</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>288929</v>
+        <v>288060</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8879637382146076</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8573551840692082</v>
+        <v>0.851837134423354</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9143526153223985</v>
+        <v>0.9116031865347372</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>467</v>
@@ -7861,19 +7861,19 @@
         <v>320051</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>310223</v>
+        <v>310424</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>327622</v>
+        <v>327598</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.898058872947151</v>
+        <v>0.8980588729471513</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8704809533264996</v>
+        <v>0.8710458401300302</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9193027824186837</v>
+        <v>0.919234069023807</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>773</v>
@@ -7882,19 +7882,19 @@
         <v>600642</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>586654</v>
+        <v>588758</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>613413</v>
+        <v>612822</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8933145006377132</v>
+        <v>0.8933145006377131</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8725098892607682</v>
+        <v>0.8756396723213453</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9123081863800431</v>
+        <v>0.9114281467968741</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>31804</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22829</v>
+        <v>21954</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44595</v>
+        <v>43199</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08523157328255146</v>
+        <v>0.08523157328255145</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06117996671665791</v>
+        <v>0.05883494481219428</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1195101042092598</v>
+        <v>0.1157695407264259</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -8007,19 +8007,19 @@
         <v>27229</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20573</v>
+        <v>20596</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34390</v>
+        <v>34909</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06452969425335174</v>
+        <v>0.06452969425335175</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04875663625053689</v>
+        <v>0.04880956765310961</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08150131440844374</v>
+        <v>0.0827301255328256</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>100</v>
@@ -8028,19 +8028,19 @@
         <v>59033</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>47824</v>
+        <v>47691</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73571</v>
+        <v>73196</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07424512990268185</v>
+        <v>0.07424512990268184</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06014800504830915</v>
+        <v>0.05998063605691582</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09252991336773451</v>
+        <v>0.09205799032127707</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>341341</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>328550</v>
+        <v>329946</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>350316</v>
+        <v>351191</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9147684267174486</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8804898957907402</v>
+        <v>0.8842304592735741</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.938820033283342</v>
+        <v>0.9411650551878057</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>538</v>
@@ -8078,19 +8078,19 @@
         <v>394732</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>387571</v>
+        <v>387052</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>401388</v>
+        <v>401365</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9354703057466482</v>
+        <v>0.9354703057466484</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9184986855915562</v>
+        <v>0.9172698744671746</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9512433637494633</v>
+        <v>0.9511904323468906</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>791</v>
@@ -8099,19 +8099,19 @@
         <v>736074</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>721536</v>
+        <v>721911</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>747283</v>
+        <v>747416</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9257548700973183</v>
+        <v>0.9257548700973179</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9074700866322656</v>
+        <v>0.9079420096787233</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9398519949516909</v>
+        <v>0.9400193639430844</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>19245</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13436</v>
+        <v>13996</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26070</v>
+        <v>26601</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09357326633285688</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06533161506704944</v>
+        <v>0.06805123427257194</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1267607334263162</v>
+        <v>0.1293400718195835</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>69</v>
@@ -8224,19 +8224,19 @@
         <v>26456</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20545</v>
+        <v>20786</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32510</v>
+        <v>32272</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1164364683733691</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0904211821410304</v>
+        <v>0.09147961697011779</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1430784452631195</v>
+        <v>0.1420345785497122</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>102</v>
@@ -8245,19 +8245,19 @@
         <v>45701</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37731</v>
+        <v>36874</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>55363</v>
+        <v>54477</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1055739651723829</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08716326422106838</v>
+        <v>0.08518209405084406</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1278959535220732</v>
+        <v>0.1258474100991114</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>186420</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>179595</v>
+        <v>179064</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>192229</v>
+        <v>191669</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.906426733667143</v>
+        <v>0.9064267336671432</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8732392665736838</v>
+        <v>0.8706599281804167</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9346683849329506</v>
+        <v>0.9319487657274282</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>423</v>
@@ -8295,19 +8295,19 @@
         <v>200759</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>194705</v>
+        <v>194943</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206670</v>
+        <v>206429</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.883563531626631</v>
+        <v>0.8835635316266308</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8569215547368806</v>
+        <v>0.8579654214502879</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9095788178589697</v>
+        <v>0.9085203830298821</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>669</v>
@@ -8316,19 +8316,19 @@
         <v>387178</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>377516</v>
+        <v>378402</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>395148</v>
+        <v>396005</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8944260348276172</v>
+        <v>0.8944260348276173</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8721040464779268</v>
+        <v>0.8741525899008888</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9128367357789317</v>
+        <v>0.9148179059491558</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>38821</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>30773</v>
+        <v>30892</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48454</v>
+        <v>49115</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1434064358607644</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1136769787605341</v>
+        <v>0.1141143546695136</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1789918261024078</v>
+        <v>0.1814305163326097</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>68</v>
@@ -8441,19 +8441,19 @@
         <v>27727</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21716</v>
+        <v>21541</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35447</v>
+        <v>35428</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1051270287988446</v>
+        <v>0.1051270287988445</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08233460303785151</v>
+        <v>0.08167202054144232</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1343962301356249</v>
+        <v>0.1343222801113678</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>142</v>
@@ -8462,19 +8462,19 @@
         <v>66548</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>56011</v>
+        <v>55642</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>78874</v>
+        <v>77769</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1245158615693912</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1047998675909638</v>
+        <v>0.1041093717958915</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1475774321667442</v>
+        <v>0.1455094351353934</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>231886</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>222253</v>
+        <v>221592</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>239934</v>
+        <v>239815</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8565935641392356</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8210081738975923</v>
+        <v>0.8185694836673906</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8863230212394659</v>
+        <v>0.8858856453304865</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>392</v>
@@ -8512,19 +8512,19 @@
         <v>236023</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>228303</v>
+        <v>228322</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>242034</v>
+        <v>242209</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8948729712011556</v>
+        <v>0.8948729712011552</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8656037698643745</v>
+        <v>0.8656777198886317</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.917665396962148</v>
+        <v>0.9183279794585575</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>689</v>
@@ -8533,19 +8533,19 @@
         <v>467909</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>455583</v>
+        <v>456688</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>478446</v>
+        <v>478815</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8754841384306089</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8524225678332558</v>
+        <v>0.8544905648646065</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8952001324090362</v>
+        <v>0.8958906282041085</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>62489</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>49426</v>
+        <v>48292</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>78603</v>
+        <v>77446</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08682826457284713</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06867756606778483</v>
+        <v>0.06710088097109995</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1092187092807033</v>
+        <v>0.1076101959448644</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>65</v>
@@ -8658,19 +8658,19 @@
         <v>44203</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>33794</v>
+        <v>34126</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>54992</v>
+        <v>55748</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05725294935970236</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04377186187694656</v>
+        <v>0.04420138546895699</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07122837846378671</v>
+        <v>0.0722075785867467</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>129</v>
@@ -8679,19 +8679,19 @@
         <v>106692</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>89886</v>
+        <v>90740</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>127543</v>
+        <v>125938</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07152146585068583</v>
+        <v>0.07152146585068585</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06025569715071073</v>
+        <v>0.06082829501305386</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08549916428729663</v>
+        <v>0.0844233086099206</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>657198</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>641084</v>
+        <v>642241</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>670261</v>
+        <v>671395</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9131717354271529</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8907812907192966</v>
+        <v>0.8923898040551353</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9313224339322149</v>
+        <v>0.9328991190289001</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>895</v>
@@ -8729,19 +8729,19 @@
         <v>727854</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>717065</v>
+        <v>716309</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>738263</v>
+        <v>737931</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9427470506402975</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9287716215362138</v>
+        <v>0.9277924214132538</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9562281381230539</v>
+        <v>0.955798614531043</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1430</v>
@@ -8750,19 +8750,19 @@
         <v>1385052</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1364201</v>
+        <v>1365806</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1401858</v>
+        <v>1401004</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9284785341493142</v>
+        <v>0.9284785341493144</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9145008357127035</v>
+        <v>0.9155766913900789</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9397443028492892</v>
+        <v>0.939171704986946</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>52426</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>41262</v>
+        <v>42362</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>66080</v>
+        <v>67313</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06569120397817445</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05170180670672534</v>
+        <v>0.05308099604148704</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08279951702695207</v>
+        <v>0.08434514590612072</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>77</v>
@@ -8875,19 +8875,19 @@
         <v>50398</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39903</v>
+        <v>39421</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>62374</v>
+        <v>62196</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.0607201020733329</v>
+        <v>0.06072010207333291</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0480749578051673</v>
+        <v>0.04749427386750518</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07514938900238922</v>
+        <v>0.07493416731437165</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>146</v>
@@ -8896,19 +8896,19 @@
         <v>102824</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>86477</v>
+        <v>88487</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>119415</v>
+        <v>121051</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06315690049145241</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05311630751866436</v>
+        <v>0.05435080052436028</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07334732073330738</v>
+        <v>0.07435214069473897</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>745646</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>731992</v>
+        <v>730759</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>756810</v>
+        <v>755710</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9343087960218254</v>
+        <v>0.9343087960218255</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9172004829730479</v>
+        <v>0.9156548540938793</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9482981932932748</v>
+        <v>0.9469190039585129</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>983</v>
@@ -8946,19 +8946,19 @@
         <v>779608</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>767632</v>
+        <v>767810</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>790103</v>
+        <v>790585</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9392798979266672</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9248506109976107</v>
+        <v>0.9250658326856283</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9519250421948323</v>
+        <v>0.952505726132495</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1676</v>
@@ -8967,19 +8967,19 @@
         <v>1525254</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1508663</v>
+        <v>1507027</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1541601</v>
+        <v>1539591</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9368430995085476</v>
+        <v>0.9368430995085478</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9266526792666926</v>
+        <v>0.9256478593052612</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9468836924813356</v>
+        <v>0.9456491994756397</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>306157</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>276909</v>
+        <v>277153</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>339115</v>
+        <v>337434</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08668637098612157</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07840518520783492</v>
+        <v>0.07847424368235967</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09601834333111516</v>
+        <v>0.0955422645158346</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>522</v>
@@ -9092,19 +9092,19 @@
         <v>277246</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>252828</v>
+        <v>255256</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>300583</v>
+        <v>303981</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07427603474967184</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06773440672826786</v>
+        <v>0.06838473994997088</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08052817994761208</v>
+        <v>0.08143849030585887</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>927</v>
@@ -9113,19 +9113,19 @@
         <v>583403</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>545920</v>
+        <v>544194</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>625197</v>
+        <v>622321</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.08030962241378704</v>
+        <v>0.08030962241378706</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07514986108513251</v>
+        <v>0.07491228852290376</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08606286569180459</v>
+        <v>0.08566699467729803</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3225618</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3192660</v>
+        <v>3194341</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3254866</v>
+        <v>3254622</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9133136290138784</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9039816566688846</v>
+        <v>0.9044577354841654</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9215948147921651</v>
+        <v>0.9215257563176403</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4838</v>
@@ -9163,19 +9163,19 @@
         <v>3455399</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3432062</v>
+        <v>3428664</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3479817</v>
+        <v>3477389</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9257239652503282</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9194718200523877</v>
+        <v>0.918561509694141</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.932265593271732</v>
+        <v>0.9316152600500293</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7808</v>
@@ -9184,19 +9184,19 @@
         <v>6681016</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6639222</v>
+        <v>6642098</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6718499</v>
+        <v>6720225</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.919690377586213</v>
+        <v>0.9196903775862129</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9139371343081956</v>
+        <v>0.9143330053227019</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9248501389148674</v>
+        <v>0.9250877114770962</v>
       </c>
     </row>
     <row r="30">
